--- a/RESULTS/Double/Structure 3 Water.xlsx
+++ b/RESULTS/Double/Structure 3 Water.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCGILL\WS16558\Py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Atoms" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,10 @@
     <sheet name="Distances with Powers" sheetId="3" r:id="rId3"/>
     <sheet name="DD Features" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DD Features'!$A$1:$AC$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -304,8 +312,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +389,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,9 +475,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,6 +527,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,17 +720,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -709,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -726,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -743,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -760,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -777,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -794,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -811,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -828,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -851,17 +903,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="16.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -893,7 +945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -928,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -963,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -998,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1033,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1068,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1103,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1173,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1208,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1243,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1278,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1348,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1383,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1418,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1488,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1523,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1558,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1593,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1628,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1663,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1698,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1733,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1768,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1803,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1838,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1873,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1908,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1943,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1978,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2048,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2083,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2118,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2159,17 +2211,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="16.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2248,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2289,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2330,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2371,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2412,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2453,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2494,7 +2546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2535,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2576,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2617,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2658,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2740,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2781,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2822,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2863,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2904,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2945,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2986,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3027,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3068,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3150,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3191,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3232,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3273,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3314,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3396,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3437,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3478,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3519,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3601,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3642,7 +3694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3689,21 +3741,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC667"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="3" customWidth="1"/>
+    <col min="15" max="21" width="12.7109375" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" style="3" customWidth="1"/>
+    <col min="23" max="25" width="12.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" style="3" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3789,7 +3847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3842,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3895,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3948,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4001,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4054,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4107,7 +4165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4160,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4213,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4266,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4319,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4372,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4425,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4478,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4531,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4584,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4637,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4690,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4743,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4796,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4849,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4902,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4955,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5008,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5061,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5114,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5167,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5220,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5273,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5326,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5379,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5432,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5485,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5538,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -5591,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -5644,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -5697,7 +5755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -5786,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -5875,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -5964,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6053,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6142,7 +6200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6231,7 +6289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6320,7 +6378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6409,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6498,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6587,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -6676,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -6765,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -6854,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -6943,7 +7001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -7032,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -7121,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -7210,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -7299,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -7388,7 +7446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -7477,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -7566,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -7655,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -7744,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -7833,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -7922,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -8011,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -8100,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -8189,7 +8247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -8278,7 +8336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -8367,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -8456,7 +8514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -8545,7 +8603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -8634,7 +8692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -8723,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -8812,7 +8870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -8901,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -8990,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -9079,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -9168,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -9257,7 +9315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -9346,7 +9404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -9435,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -9524,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -9613,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -9702,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -9791,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -9880,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -9969,7 +10027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -10058,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -10147,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -10236,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -10325,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -10414,7 +10472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -10503,7 +10561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -10592,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -10681,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -10770,7 +10828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -10859,7 +10917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -10948,7 +11006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -11037,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -11126,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -11215,7 +11273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -11304,7 +11362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -11393,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -11482,7 +11540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -11571,7 +11629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -11660,7 +11718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -11749,7 +11807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -11838,7 +11896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -11927,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -12016,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -12105,7 +12163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -12194,7 +12252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -12283,7 +12341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -12372,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -12461,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -12550,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -12639,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -12728,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -12817,7 +12875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -12906,7 +12964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -12995,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -13084,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -13173,7 +13231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -13262,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -13351,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -13440,7 +13498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -13529,7 +13587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -13618,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -13707,7 +13765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -13796,7 +13854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -13885,7 +13943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -13974,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -14063,7 +14121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -14152,7 +14210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -14241,7 +14299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -14330,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -14419,7 +14477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -14508,7 +14566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -14597,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -14686,7 +14744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -14775,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -14864,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -14953,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -15042,7 +15100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -15131,7 +15189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -15220,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -15309,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -15398,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -15487,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -15576,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -15665,7 +15723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -15754,7 +15812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -15843,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -15932,7 +15990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -16021,7 +16079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -16110,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -16199,7 +16257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -16288,7 +16346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -16377,7 +16435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -16466,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -16555,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -16644,7 +16702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -16733,7 +16791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -16822,7 +16880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -16911,7 +16969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -17000,7 +17058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -17089,7 +17147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -17178,7 +17236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -17267,7 +17325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -17356,7 +17414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -17445,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -17534,7 +17592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -17623,7 +17681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -17712,7 +17770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -17801,7 +17859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -17890,7 +17948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -17979,7 +18037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -18068,7 +18126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:29">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -18157,7 +18215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:29">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -18246,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:29">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -18335,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:29">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -18424,7 +18482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:29">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -18513,7 +18571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -18602,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:29">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -18691,7 +18749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:29">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -18780,7 +18838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:29">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -18869,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:29">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -18958,7 +19016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:29">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -19047,7 +19105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:29">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -19136,7 +19194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:29">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -19225,7 +19283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:29">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -19314,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:29">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -19403,7 +19461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:29">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -19492,7 +19550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:29">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -19581,7 +19639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:29">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -19670,7 +19728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:29">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -19759,7 +19817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -19848,7 +19906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:29">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -19937,7 +19995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:29">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -20026,7 +20084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -20115,7 +20173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:29">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -20204,7 +20262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:29">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -20293,7 +20351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:29">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -20382,7 +20440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -20471,7 +20529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:29">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -20560,7 +20618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:29">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -20649,7 +20707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:29">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -20738,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:29">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -20827,7 +20885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:29">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -20916,7 +20974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:29">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -21005,7 +21063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:29">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -21094,7 +21152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:29">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -21183,7 +21241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:29">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -21272,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:29">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -21361,7 +21419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:29">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -21450,7 +21508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:29">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -21539,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:29">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -21628,7 +21686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:29">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -21717,7 +21775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:29">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -21806,7 +21864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:29">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -21895,7 +21953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:29">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -21984,7 +22042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:29">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -22073,7 +22131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:29">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -22162,7 +22220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:29">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -22251,7 +22309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:29">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -22340,7 +22398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:29">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -22429,7 +22487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:29">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -22518,7 +22576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:29">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -22607,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:29">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -22696,7 +22754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:29">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -22785,7 +22843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:29">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -22874,7 +22932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -22963,7 +23021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:29">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -23052,7 +23110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:29">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -23141,7 +23199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:29">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -23230,7 +23288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:29">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -23319,7 +23377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:29">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -23408,7 +23466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:29">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -23497,7 +23555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:29">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -23586,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:29">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -23675,7 +23733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:29">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -23764,7 +23822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:29">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -23853,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:29">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -23942,7 +24000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:29">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -24031,7 +24089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:29">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -24120,7 +24178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:29">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -24209,7 +24267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:29">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -24298,7 +24356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:29">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -24387,7 +24445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:29">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -24476,7 +24534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:29">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -24565,7 +24623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:29">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -24654,7 +24712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:29">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -24743,7 +24801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:29">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -24832,7 +24890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:29">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -24921,7 +24979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:29">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -25010,7 +25068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:29">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -25099,7 +25157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:29">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -25188,7 +25246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:29">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -25277,7 +25335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:29">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -25366,7 +25424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:29">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -25455,7 +25513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:29">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -25544,7 +25602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:29">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -25633,7 +25691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:29">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -25722,7 +25780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:29">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -25811,7 +25869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:29">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -25900,7 +25958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:29">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -25989,7 +26047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:29">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -26078,7 +26136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:29">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -26167,7 +26225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:29">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -26256,7 +26314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:29">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>267</v>
       </c>
@@ -26345,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:29">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -26434,7 +26492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:29">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -26523,7 +26581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:29">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>270</v>
       </c>
@@ -26612,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:29">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -26701,7 +26759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:29">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -26790,7 +26848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:29">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>273</v>
       </c>
@@ -26879,7 +26937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:29">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>274</v>
       </c>
@@ -26968,7 +27026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:29">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -27057,7 +27115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:29">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -27146,7 +27204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:29">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>277</v>
       </c>
@@ -27235,7 +27293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:29">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -27324,7 +27382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:29">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>279</v>
       </c>
@@ -27413,7 +27471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:29">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>280</v>
       </c>
@@ -27502,7 +27560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:29">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -27591,7 +27649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:29">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -27680,7 +27738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:29">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -27769,7 +27827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:29">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -27858,7 +27916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:29">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -27947,7 +28005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:29">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -28036,7 +28094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:29">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>287</v>
       </c>
@@ -28125,7 +28183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:29">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -28214,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:29">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -28303,7 +28361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:29">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>290</v>
       </c>
@@ -28392,7 +28450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:29">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>291</v>
       </c>
@@ -28481,7 +28539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:29">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>292</v>
       </c>
@@ -28570,7 +28628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:29">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -28659,7 +28717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:29">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -28748,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:29">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -28837,7 +28895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:29">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -28926,7 +28984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:29">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>297</v>
       </c>
@@ -29015,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:29">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>298</v>
       </c>
@@ -29104,7 +29162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:29">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -29193,7 +29251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:29">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>300</v>
       </c>
@@ -29282,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:29">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>301</v>
       </c>
@@ -29371,7 +29429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:29">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -29460,7 +29518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:29">
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>303</v>
       </c>
@@ -29549,7 +29607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:29">
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -29638,7 +29696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:29">
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -29727,7 +29785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:29">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>306</v>
       </c>
@@ -29816,7 +29874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:29">
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -29905,7 +29963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:29">
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -29994,7 +30052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:29">
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>309</v>
       </c>
@@ -30083,7 +30141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:29">
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -30172,7 +30230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:29">
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -30261,7 +30319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:29">
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>312</v>
       </c>
@@ -30350,7 +30408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:29">
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>313</v>
       </c>
@@ -30439,7 +30497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:29">
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -30528,7 +30586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:29">
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -30617,7 +30675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:29">
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -30706,7 +30764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:29">
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>317</v>
       </c>
@@ -30795,7 +30853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:29">
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -30884,7 +30942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:29">
+    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -30973,7 +31031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:29">
+    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -31062,7 +31120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:29">
+    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -31151,7 +31209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:29">
+    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>322</v>
       </c>
@@ -31240,7 +31298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:29">
+    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>323</v>
       </c>
@@ -31329,7 +31387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:29">
+    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -31418,7 +31476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:29">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>325</v>
       </c>
@@ -31507,7 +31565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:29">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -31596,7 +31654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:29">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -31685,7 +31743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:29">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>328</v>
       </c>
@@ -31774,7 +31832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:29">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -31863,7 +31921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:29">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -31952,7 +32010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:29">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>331</v>
       </c>
@@ -32041,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:29">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -32130,7 +32188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:29">
+    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -32219,7 +32277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:29">
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -32308,7 +32366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:29">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -32397,7 +32455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:29">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>336</v>
       </c>
@@ -32486,7 +32544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:29">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>337</v>
       </c>
@@ -32575,7 +32633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:29">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>338</v>
       </c>
@@ -32664,7 +32722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:29">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>339</v>
       </c>
@@ -32753,7 +32811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:29">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -32842,7 +32900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:29">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>341</v>
       </c>
@@ -32931,7 +32989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:29">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>342</v>
       </c>
@@ -33020,7 +33078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:29">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -33109,7 +33167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:29">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>344</v>
       </c>
@@ -33198,7 +33256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:29">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>345</v>
       </c>
@@ -33287,7 +33345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:29">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>346</v>
       </c>
@@ -33376,7 +33434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:29">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>347</v>
       </c>
@@ -33465,7 +33523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:29">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -33554,7 +33612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:29">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>349</v>
       </c>
@@ -33643,7 +33701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:29">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>350</v>
       </c>
@@ -33732,7 +33790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:29">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>351</v>
       </c>
@@ -33821,7 +33879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:29">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>352</v>
       </c>
@@ -33910,7 +33968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:29">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>353</v>
       </c>
@@ -33999,7 +34057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:29">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -34088,7 +34146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:29">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>355</v>
       </c>
@@ -34177,7 +34235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:29">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>356</v>
       </c>
@@ -34266,7 +34324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:29">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>357</v>
       </c>
@@ -34355,7 +34413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:29">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>358</v>
       </c>
@@ -34444,7 +34502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:29">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -34533,7 +34591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:29">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>360</v>
       </c>
@@ -34622,7 +34680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:29">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>361</v>
       </c>
@@ -34711,7 +34769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:29">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -34800,7 +34858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:29">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>363</v>
       </c>
@@ -34889,7 +34947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:29">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>364</v>
       </c>
@@ -34978,7 +35036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:29">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -35067,7 +35125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:29">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>366</v>
       </c>
@@ -35156,7 +35214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:29">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>367</v>
       </c>
@@ -35245,7 +35303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:29">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>368</v>
       </c>
@@ -35334,7 +35392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:29">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>369</v>
       </c>
@@ -35423,7 +35481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:29">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>370</v>
       </c>
@@ -35512,7 +35570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:29">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>371</v>
       </c>
@@ -35601,7 +35659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:29">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -35690,7 +35748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:29">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>373</v>
       </c>
@@ -35779,7 +35837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:29">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>374</v>
       </c>
@@ -35868,7 +35926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:29">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>375</v>
       </c>
@@ -35957,7 +36015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:29">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>376</v>
       </c>
@@ -36046,7 +36104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:29">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>377</v>
       </c>
@@ -36135,7 +36193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:29">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>378</v>
       </c>
@@ -36224,7 +36282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:29">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -36313,7 +36371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:29">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>380</v>
       </c>
@@ -36402,7 +36460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:29">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>381</v>
       </c>
@@ -36491,7 +36549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:29">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>382</v>
       </c>
@@ -36580,7 +36638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:29">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>383</v>
       </c>
@@ -36669,7 +36727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:29">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>384</v>
       </c>
@@ -36758,7 +36816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:29">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>385</v>
       </c>
@@ -36847,7 +36905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:29">
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -36936,7 +36994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:29">
+    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>387</v>
       </c>
@@ -37025,7 +37083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:29">
+    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>388</v>
       </c>
@@ -37114,7 +37172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:29">
+    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>389</v>
       </c>
@@ -37203,7 +37261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:29">
+    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>390</v>
       </c>
@@ -37292,7 +37350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:29">
+    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>391</v>
       </c>
@@ -37381,7 +37439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:29">
+    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>392</v>
       </c>
@@ -37470,7 +37528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:29">
+    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -37559,7 +37617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:29">
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>394</v>
       </c>
@@ -37648,7 +37706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:29">
+    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>395</v>
       </c>
@@ -37737,7 +37795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:29">
+    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>396</v>
       </c>
@@ -37826,7 +37884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:29">
+    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>397</v>
       </c>
@@ -37915,7 +37973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:29">
+    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>398</v>
       </c>
@@ -38004,7 +38062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:29">
+    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>399</v>
       </c>
@@ -38093,7 +38151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:29">
+    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>400</v>
       </c>
@@ -38182,7 +38240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:29">
+    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>401</v>
       </c>
@@ -38271,7 +38329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:29">
+    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>402</v>
       </c>
@@ -38360,7 +38418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:29">
+    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>403</v>
       </c>
@@ -38449,7 +38507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:29">
+    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>404</v>
       </c>
@@ -38538,7 +38596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:29">
+    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>405</v>
       </c>
@@ -38627,7 +38685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:29">
+    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>406</v>
       </c>
@@ -38716,7 +38774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:29">
+    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>407</v>
       </c>
@@ -38805,7 +38863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:29">
+    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>408</v>
       </c>
@@ -38894,7 +38952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:29">
+    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>409</v>
       </c>
@@ -38983,7 +39041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:29">
+    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>410</v>
       </c>
@@ -39072,7 +39130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:29">
+    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>411</v>
       </c>
@@ -39161,7 +39219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:29">
+    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>412</v>
       </c>
@@ -39250,7 +39308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:29">
+    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>413</v>
       </c>
@@ -39339,7 +39397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:29">
+    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>414</v>
       </c>
@@ -39428,7 +39486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:29">
+    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>415</v>
       </c>
@@ -39517,7 +39575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:29">
+    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>416</v>
       </c>
@@ -39606,7 +39664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:29">
+    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>417</v>
       </c>
@@ -39695,7 +39753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:29">
+    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>418</v>
       </c>
@@ -39784,7 +39842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:29">
+    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>419</v>
       </c>
@@ -39873,7 +39931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:29">
+    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>420</v>
       </c>
@@ -39962,7 +40020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:29">
+    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>421</v>
       </c>
@@ -40051,7 +40109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:29">
+    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>422</v>
       </c>
@@ -40140,7 +40198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:29">
+    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>423</v>
       </c>
@@ -40229,7 +40287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:29">
+    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>424</v>
       </c>
@@ -40318,7 +40376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:29">
+    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>425</v>
       </c>
@@ -40407,7 +40465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:29">
+    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>426</v>
       </c>
@@ -40496,7 +40554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:29">
+    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>427</v>
       </c>
@@ -40585,7 +40643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:29">
+    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>428</v>
       </c>
@@ -40674,7 +40732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:29">
+    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>429</v>
       </c>
@@ -40763,7 +40821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:29">
+    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>430</v>
       </c>
@@ -40852,7 +40910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:29">
+    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>431</v>
       </c>
@@ -40941,7 +40999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:29">
+    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>432</v>
       </c>
@@ -41030,7 +41088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:29">
+    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>433</v>
       </c>
@@ -41119,7 +41177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:29">
+    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>434</v>
       </c>
@@ -41208,7 +41266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:29">
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>435</v>
       </c>
@@ -41297,7 +41355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:29">
+    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>436</v>
       </c>
@@ -41386,7 +41444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:29">
+    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>437</v>
       </c>
@@ -41475,7 +41533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:29">
+    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>438</v>
       </c>
@@ -41564,7 +41622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:29">
+    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>439</v>
       </c>
@@ -41653,7 +41711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:29">
+    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>440</v>
       </c>
@@ -41742,7 +41800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:29">
+    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>441</v>
       </c>
@@ -41831,7 +41889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:29">
+    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>442</v>
       </c>
@@ -41920,7 +41978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:29">
+    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>443</v>
       </c>
@@ -42009,7 +42067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:29">
+    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>444</v>
       </c>
@@ -42098,7 +42156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:29">
+    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>445</v>
       </c>
@@ -42187,7 +42245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:29">
+    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>446</v>
       </c>
@@ -42276,7 +42334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:29">
+    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>447</v>
       </c>
@@ -42365,7 +42423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:29">
+    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>448</v>
       </c>
@@ -42454,7 +42512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:29">
+    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>449</v>
       </c>
@@ -42543,7 +42601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:29">
+    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>450</v>
       </c>
@@ -42632,7 +42690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:29">
+    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>451</v>
       </c>
@@ -42721,7 +42779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:29">
+    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>452</v>
       </c>
@@ -42810,7 +42868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:29">
+    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>453</v>
       </c>
@@ -42899,7 +42957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:29">
+    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>454</v>
       </c>
@@ -42988,7 +43046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:29">
+    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>455</v>
       </c>
@@ -43077,7 +43135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:29">
+    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>456</v>
       </c>
@@ -43166,7 +43224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:29">
+    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>457</v>
       </c>
@@ -43255,7 +43313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:29">
+    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>458</v>
       </c>
@@ -43344,7 +43402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:29">
+    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>459</v>
       </c>
@@ -43433,7 +43491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:29">
+    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>460</v>
       </c>
@@ -43522,7 +43580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:29">
+    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>461</v>
       </c>
@@ -43611,7 +43669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:29">
+    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>462</v>
       </c>
@@ -43700,7 +43758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:29">
+    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>463</v>
       </c>
@@ -43789,7 +43847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:29">
+    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>464</v>
       </c>
@@ -43878,7 +43936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:29">
+    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>465</v>
       </c>
@@ -43967,7 +44025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:29">
+    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>466</v>
       </c>
@@ -44056,7 +44114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:29">
+    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>467</v>
       </c>
@@ -44145,7 +44203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:29">
+    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>468</v>
       </c>
@@ -44234,7 +44292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:29">
+    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>469</v>
       </c>
@@ -44323,7 +44381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:29">
+    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>470</v>
       </c>
@@ -44412,7 +44470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:29">
+    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>471</v>
       </c>
@@ -44501,7 +44559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:29">
+    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>472</v>
       </c>
@@ -44590,7 +44648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:29">
+    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>473</v>
       </c>
@@ -44679,7 +44737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:29">
+    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>474</v>
       </c>
@@ -44768,7 +44826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:29">
+    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>475</v>
       </c>
@@ -44857,7 +44915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:29">
+    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>476</v>
       </c>
@@ -44946,7 +45004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:29">
+    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>477</v>
       </c>
@@ -45035,7 +45093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:29">
+    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>478</v>
       </c>
@@ -45124,7 +45182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:29">
+    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>479</v>
       </c>
@@ -45213,7 +45271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:29">
+    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>480</v>
       </c>
@@ -45302,7 +45360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:29">
+    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>481</v>
       </c>
@@ -45391,7 +45449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:29">
+    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>482</v>
       </c>
@@ -45480,7 +45538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:29">
+    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>483</v>
       </c>
@@ -45569,7 +45627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:29">
+    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>484</v>
       </c>
@@ -45658,7 +45716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:29">
+    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>485</v>
       </c>
@@ -45747,7 +45805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:29">
+    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>486</v>
       </c>
@@ -45836,7 +45894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:29">
+    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>487</v>
       </c>
@@ -45925,7 +45983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:29">
+    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>488</v>
       </c>
@@ -46014,7 +46072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:29">
+    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>489</v>
       </c>
@@ -46103,7 +46161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:29">
+    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>490</v>
       </c>
@@ -46192,7 +46250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:29">
+    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>491</v>
       </c>
@@ -46281,7 +46339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:29">
+    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>492</v>
       </c>
@@ -46370,7 +46428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:29">
+    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>493</v>
       </c>
@@ -46459,7 +46517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:29">
+    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>494</v>
       </c>
@@ -46548,7 +46606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:29">
+    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>495</v>
       </c>
@@ -46637,7 +46695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:29">
+    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>496</v>
       </c>
@@ -46726,7 +46784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:29">
+    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>497</v>
       </c>
@@ -46815,7 +46873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:29">
+    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>498</v>
       </c>
@@ -46904,7 +46962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:29">
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>499</v>
       </c>
@@ -46993,7 +47051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:29">
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>500</v>
       </c>
@@ -47082,7 +47140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:29">
+    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>501</v>
       </c>
@@ -47171,7 +47229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:29">
+    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>502</v>
       </c>
@@ -47260,7 +47318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:29">
+    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>503</v>
       </c>
@@ -47349,7 +47407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:29">
+    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>504</v>
       </c>
@@ -47438,7 +47496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:29">
+    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>505</v>
       </c>
@@ -47527,7 +47585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:29">
+    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>506</v>
       </c>
@@ -47616,7 +47674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:29">
+    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>507</v>
       </c>
@@ -47705,7 +47763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:29">
+    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>508</v>
       </c>
@@ -47794,7 +47852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:29">
+    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>509</v>
       </c>
@@ -47883,7 +47941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:29">
+    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>510</v>
       </c>
@@ -47972,7 +48030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:29">
+    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>511</v>
       </c>
@@ -48061,7 +48119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:29">
+    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>512</v>
       </c>
@@ -48150,7 +48208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:29">
+    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>513</v>
       </c>
@@ -48239,7 +48297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:29">
+    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>514</v>
       </c>
@@ -48328,7 +48386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:29">
+    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>515</v>
       </c>
@@ -48417,7 +48475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:29">
+    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>516</v>
       </c>
@@ -48506,7 +48564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:29">
+    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>517</v>
       </c>
@@ -48595,7 +48653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:29">
+    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>518</v>
       </c>
@@ -48684,7 +48742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:29">
+    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>519</v>
       </c>
@@ -48773,7 +48831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:29">
+    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>520</v>
       </c>
@@ -48862,7 +48920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:29">
+    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>521</v>
       </c>
@@ -48951,7 +49009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:29">
+    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>522</v>
       </c>
@@ -49040,7 +49098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:29">
+    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>523</v>
       </c>
@@ -49129,7 +49187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:29">
+    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>524</v>
       </c>
@@ -49218,7 +49276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:29">
+    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>525</v>
       </c>
@@ -49307,7 +49365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:29">
+    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>526</v>
       </c>
@@ -49396,7 +49454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:29">
+    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>527</v>
       </c>
@@ -49485,7 +49543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:29">
+    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>528</v>
       </c>
@@ -49574,7 +49632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:29">
+    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>529</v>
       </c>
@@ -49663,7 +49721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:29">
+    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>530</v>
       </c>
@@ -49752,7 +49810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:29">
+    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>531</v>
       </c>
@@ -49841,7 +49899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:29">
+    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>532</v>
       </c>
@@ -49930,7 +49988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:29">
+    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>533</v>
       </c>
@@ -50019,7 +50077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:29">
+    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>534</v>
       </c>
@@ -50108,7 +50166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:29">
+    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>535</v>
       </c>
@@ -50197,7 +50255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:29">
+    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>536</v>
       </c>
@@ -50286,7 +50344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:29">
+    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>537</v>
       </c>
@@ -50375,7 +50433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:29">
+    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>538</v>
       </c>
@@ -50464,7 +50522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:29">
+    <row r="541" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>539</v>
       </c>
@@ -50553,7 +50611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:29">
+    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>540</v>
       </c>
@@ -50642,7 +50700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:29">
+    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>541</v>
       </c>
@@ -50731,7 +50789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:29">
+    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>542</v>
       </c>
@@ -50820,7 +50878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:29">
+    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>543</v>
       </c>
@@ -50909,7 +50967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:29">
+    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>544</v>
       </c>
@@ -50998,7 +51056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:29">
+    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>545</v>
       </c>
@@ -51087,7 +51145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:29">
+    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>546</v>
       </c>
@@ -51176,7 +51234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:29">
+    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>547</v>
       </c>
@@ -51265,7 +51323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:29">
+    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>548</v>
       </c>
@@ -51354,7 +51412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:29">
+    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>549</v>
       </c>
@@ -51443,7 +51501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:29">
+    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>550</v>
       </c>
@@ -51532,7 +51590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:29">
+    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>551</v>
       </c>
@@ -51621,7 +51679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:29">
+    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>552</v>
       </c>
@@ -51710,7 +51768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:29">
+    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>553</v>
       </c>
@@ -51799,7 +51857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:29">
+    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>554</v>
       </c>
@@ -51888,7 +51946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:29">
+    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>555</v>
       </c>
@@ -51977,7 +52035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:29">
+    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>556</v>
       </c>
@@ -52066,7 +52124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:29">
+    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>557</v>
       </c>
@@ -52155,7 +52213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:29">
+    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>558</v>
       </c>
@@ -52244,7 +52302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:29">
+    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>559</v>
       </c>
@@ -52333,7 +52391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:29">
+    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>560</v>
       </c>
@@ -52422,7 +52480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:29">
+    <row r="563" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>561</v>
       </c>
@@ -52511,7 +52569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:29">
+    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>562</v>
       </c>
@@ -52600,7 +52658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:29">
+    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>563</v>
       </c>
@@ -52689,7 +52747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:29">
+    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>564</v>
       </c>
@@ -52778,7 +52836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:29">
+    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>565</v>
       </c>
@@ -52867,7 +52925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:29">
+    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>566</v>
       </c>
@@ -52956,7 +53014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:29">
+    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>567</v>
       </c>
@@ -53045,7 +53103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:29">
+    <row r="570" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>568</v>
       </c>
@@ -53134,7 +53192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:29">
+    <row r="571" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>569</v>
       </c>
@@ -53223,7 +53281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:29">
+    <row r="572" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>570</v>
       </c>
@@ -53312,7 +53370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:29">
+    <row r="573" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>571</v>
       </c>
@@ -53401,7 +53459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:29">
+    <row r="574" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>572</v>
       </c>
@@ -53490,7 +53548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:29">
+    <row r="575" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>573</v>
       </c>
@@ -53579,7 +53637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:29">
+    <row r="576" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>574</v>
       </c>
@@ -53668,7 +53726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:29">
+    <row r="577" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>575</v>
       </c>
@@ -53757,7 +53815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:29">
+    <row r="578" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>576</v>
       </c>
@@ -53846,7 +53904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:29">
+    <row r="579" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>577</v>
       </c>
@@ -53935,7 +53993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:29">
+    <row r="580" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>578</v>
       </c>
@@ -54024,7 +54082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:29">
+    <row r="581" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>579</v>
       </c>
@@ -54113,7 +54171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:29">
+    <row r="582" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>580</v>
       </c>
@@ -54202,7 +54260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:29">
+    <row r="583" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>581</v>
       </c>
@@ -54291,7 +54349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:29">
+    <row r="584" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>582</v>
       </c>
@@ -54380,7 +54438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:29">
+    <row r="585" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>583</v>
       </c>
@@ -54469,7 +54527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:29">
+    <row r="586" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>584</v>
       </c>
@@ -54558,7 +54616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:29">
+    <row r="587" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>585</v>
       </c>
@@ -54647,7 +54705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:29">
+    <row r="588" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>586</v>
       </c>
@@ -54736,7 +54794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:29">
+    <row r="589" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>587</v>
       </c>
@@ -54825,7 +54883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:29">
+    <row r="590" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>588</v>
       </c>
@@ -54914,7 +54972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:29">
+    <row r="591" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>589</v>
       </c>
@@ -55003,7 +55061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:29">
+    <row r="592" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>590</v>
       </c>
@@ -55092,7 +55150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:29">
+    <row r="593" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>591</v>
       </c>
@@ -55181,7 +55239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:29">
+    <row r="594" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>592</v>
       </c>
@@ -55270,7 +55328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:29">
+    <row r="595" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>593</v>
       </c>
@@ -55359,7 +55417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:29">
+    <row r="596" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>594</v>
       </c>
@@ -55448,7 +55506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:29">
+    <row r="597" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>595</v>
       </c>
@@ -55537,7 +55595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:29">
+    <row r="598" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>596</v>
       </c>
@@ -55626,7 +55684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:29">
+    <row r="599" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>597</v>
       </c>
@@ -55715,7 +55773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:29">
+    <row r="600" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>598</v>
       </c>
@@ -55804,7 +55862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:29">
+    <row r="601" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>599</v>
       </c>
@@ -55893,7 +55951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:29">
+    <row r="602" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>600</v>
       </c>
@@ -55982,7 +56040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:29">
+    <row r="603" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>601</v>
       </c>
@@ -56071,7 +56129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:29">
+    <row r="604" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>602</v>
       </c>
@@ -56160,7 +56218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:29">
+    <row r="605" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>603</v>
       </c>
@@ -56249,7 +56307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:29">
+    <row r="606" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>604</v>
       </c>
@@ -56338,7 +56396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:29">
+    <row r="607" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>605</v>
       </c>
@@ -56427,7 +56485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:29">
+    <row r="608" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>606</v>
       </c>
@@ -56516,7 +56574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:29">
+    <row r="609" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>607</v>
       </c>
@@ -56605,7 +56663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:29">
+    <row r="610" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>608</v>
       </c>
@@ -56694,7 +56752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:29">
+    <row r="611" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>609</v>
       </c>
@@ -56783,7 +56841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:29">
+    <row r="612" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>610</v>
       </c>
@@ -56872,7 +56930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:29">
+    <row r="613" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>611</v>
       </c>
@@ -56961,7 +57019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:29">
+    <row r="614" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>612</v>
       </c>
@@ -57050,7 +57108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:29">
+    <row r="615" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>613</v>
       </c>
@@ -57139,7 +57197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:29">
+    <row r="616" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>614</v>
       </c>
@@ -57228,7 +57286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:29">
+    <row r="617" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>615</v>
       </c>
@@ -57317,7 +57375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:29">
+    <row r="618" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>616</v>
       </c>
@@ -57406,7 +57464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:29">
+    <row r="619" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>617</v>
       </c>
@@ -57495,7 +57553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:29">
+    <row r="620" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>618</v>
       </c>
@@ -57584,7 +57642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:29">
+    <row r="621" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>619</v>
       </c>
@@ -57673,7 +57731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:29">
+    <row r="622" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>620</v>
       </c>
@@ -57762,7 +57820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:29">
+    <row r="623" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>621</v>
       </c>
@@ -57851,7 +57909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:29">
+    <row r="624" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>622</v>
       </c>
@@ -57940,7 +57998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:29">
+    <row r="625" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>623</v>
       </c>
@@ -58029,7 +58087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:29">
+    <row r="626" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>624</v>
       </c>
@@ -58118,7 +58176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:29">
+    <row r="627" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>625</v>
       </c>
@@ -58207,7 +58265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:29">
+    <row r="628" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>626</v>
       </c>
@@ -58296,7 +58354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:29">
+    <row r="629" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>627</v>
       </c>
@@ -58385,7 +58443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:29">
+    <row r="630" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>628</v>
       </c>
@@ -58474,7 +58532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:29">
+    <row r="631" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>629</v>
       </c>
@@ -58563,7 +58621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:29">
+    <row r="632" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>630</v>
       </c>
@@ -58652,7 +58710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:29">
+    <row r="633" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>631</v>
       </c>
@@ -58741,7 +58799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:29">
+    <row r="634" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>632</v>
       </c>
@@ -58830,7 +58888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:29">
+    <row r="635" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>633</v>
       </c>
@@ -58919,7 +58977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:29">
+    <row r="636" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>634</v>
       </c>
@@ -59008,7 +59066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:29">
+    <row r="637" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>635</v>
       </c>
@@ -59097,7 +59155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:29">
+    <row r="638" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>636</v>
       </c>
@@ -59186,7 +59244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:29">
+    <row r="639" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>637</v>
       </c>
@@ -59275,7 +59333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:29">
+    <row r="640" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>638</v>
       </c>
@@ -59364,7 +59422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:29">
+    <row r="641" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>639</v>
       </c>
@@ -59453,7 +59511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:29">
+    <row r="642" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>640</v>
       </c>
@@ -59542,7 +59600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:29">
+    <row r="643" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>641</v>
       </c>
@@ -59631,7 +59689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:29">
+    <row r="644" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>642</v>
       </c>
@@ -59720,7 +59778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:29">
+    <row r="645" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>643</v>
       </c>
@@ -59809,7 +59867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:29">
+    <row r="646" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>644</v>
       </c>
@@ -59898,7 +59956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:29">
+    <row r="647" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>645</v>
       </c>
@@ -59987,7 +60045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:29">
+    <row r="648" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>646</v>
       </c>
@@ -60076,7 +60134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:29">
+    <row r="649" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>647</v>
       </c>
@@ -60165,7 +60223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:29">
+    <row r="650" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>648</v>
       </c>
@@ -60254,7 +60312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:29">
+    <row r="651" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>649</v>
       </c>
@@ -60343,7 +60401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:29">
+    <row r="652" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>650</v>
       </c>
@@ -60432,7 +60490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:29">
+    <row r="653" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>651</v>
       </c>
@@ -60521,7 +60579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:29">
+    <row r="654" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>652</v>
       </c>
@@ -60610,7 +60668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:29">
+    <row r="655" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>653</v>
       </c>
@@ -60699,7 +60757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:29">
+    <row r="656" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>654</v>
       </c>
@@ -60788,7 +60846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:29">
+    <row r="657" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>655</v>
       </c>
@@ -60877,7 +60935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:29">
+    <row r="658" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>656</v>
       </c>
@@ -60966,7 +61024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:29">
+    <row r="659" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>657</v>
       </c>
@@ -61055,7 +61113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:29">
+    <row r="660" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>658</v>
       </c>
@@ -61144,7 +61202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:29">
+    <row r="661" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>659</v>
       </c>
@@ -61233,7 +61291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:29">
+    <row r="662" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>660</v>
       </c>
@@ -61322,7 +61380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:29">
+    <row r="663" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>661</v>
       </c>
@@ -61411,7 +61469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:29">
+    <row r="664" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>662</v>
       </c>
@@ -61500,7 +61558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:29">
+    <row r="665" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>663</v>
       </c>
@@ -61589,7 +61647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:29">
+    <row r="666" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>664</v>
       </c>
@@ -61678,7 +61736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:29">
+    <row r="667" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>665</v>
       </c>
@@ -61768,6 +61826,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RESULTS/Double/Structure 3 Water.xlsx
+++ b/RESULTS/Double/Structure 3 Water.xlsx
@@ -18,7 +18,7 @@
     <sheet name="DD Features" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DD Features'!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DD Features'!$A$1:$AC$667</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3745,7 +3745,7 @@
   <dimension ref="A1:AC667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61826,7 +61826,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1"/>
+  <autoFilter ref="A1:AC667"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>